--- a/order_list_large.xlsx
+++ b/order_list_large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Tabu-Search-for-CVRPTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6557D-6301-495E-BC03-A1B269D0E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB74B3CA-6DCE-4C77-837B-91A42B991863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D31D6F35-6EAB-A345-9B39-D8C465EAD513}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="249">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -695,6 +695,81 @@
   </si>
   <si>
     <t>INV_14062024_25</t>
+  </si>
+  <si>
+    <t>INV_31052024_39</t>
+  </si>
+  <si>
+    <t>INV_31052024_40</t>
+  </si>
+  <si>
+    <t>INV_31052024_41</t>
+  </si>
+  <si>
+    <t>INV_31052024_42</t>
+  </si>
+  <si>
+    <t>INV_31052024_43</t>
+  </si>
+  <si>
+    <t>INV_31052024_44</t>
+  </si>
+  <si>
+    <t>INV_31052024_45</t>
+  </si>
+  <si>
+    <t>INV_31052024_46</t>
+  </si>
+  <si>
+    <t>INV_31052024_47</t>
+  </si>
+  <si>
+    <t>INV_31052024_48</t>
+  </si>
+  <si>
+    <t>INV_31052024_49</t>
+  </si>
+  <si>
+    <t>INV_31052024_50</t>
+  </si>
+  <si>
+    <t>INV_31052024_51</t>
+  </si>
+  <si>
+    <t>INV_31052024_52</t>
+  </si>
+  <si>
+    <t>INV_31052024_53</t>
+  </si>
+  <si>
+    <t>INV_31052024_54</t>
+  </si>
+  <si>
+    <t>INV_31052024_55</t>
+  </si>
+  <si>
+    <t>INV_31052024_56</t>
+  </si>
+  <si>
+    <t>INV_31052024_57</t>
+  </si>
+  <si>
+    <t>INV_31052024_58</t>
+  </si>
+  <si>
+    <t>INV_31052024_59</t>
+  </si>
+  <si>
+    <t>INV_31052024_60</t>
+  </si>
+  <si>
+    <t>INV_31052024_61</t>
+  </si>
+  <si>
+    <t>INV_31052024_62</t>
+  </si>
+  <si>
+    <t>INV_31052024_63</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1CC031-1DDA-3E40-93C8-E3883026EEFC}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
@@ -5306,6 +5381,431 @@
         <v>180</v>
       </c>
       <c r="E219" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>12341441</v>
+      </c>
+      <c r="D220">
+        <v>120</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>12757112</v>
+      </c>
+      <c r="D221">
+        <v>150</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>12339991</v>
+      </c>
+      <c r="D222">
+        <v>289</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>13032687</v>
+      </c>
+      <c r="D223">
+        <v>180</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>12628650</v>
+      </c>
+      <c r="D224">
+        <v>120</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>12475521</v>
+      </c>
+      <c r="D225">
+        <v>150</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>10953982</v>
+      </c>
+      <c r="D226">
+        <v>289</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>10208692</v>
+      </c>
+      <c r="D227">
+        <v>180</v>
+      </c>
+      <c r="E227" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>12475631</v>
+      </c>
+      <c r="D228">
+        <v>120</v>
+      </c>
+      <c r="E228" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>10208123</v>
+      </c>
+      <c r="D229">
+        <v>150</v>
+      </c>
+      <c r="E229" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>10208688</v>
+      </c>
+      <c r="D230">
+        <v>289</v>
+      </c>
+      <c r="E230" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>10208505</v>
+      </c>
+      <c r="D231">
+        <v>180</v>
+      </c>
+      <c r="E231" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>12588807</v>
+      </c>
+      <c r="D232">
+        <v>120</v>
+      </c>
+      <c r="E232" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>10208672</v>
+      </c>
+      <c r="D233">
+        <v>150</v>
+      </c>
+      <c r="E233" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>10208636</v>
+      </c>
+      <c r="D234">
+        <v>289</v>
+      </c>
+      <c r="E234" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>12854181</v>
+      </c>
+      <c r="D235">
+        <v>180</v>
+      </c>
+      <c r="E235" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>12854196</v>
+      </c>
+      <c r="D236">
+        <v>120</v>
+      </c>
+      <c r="E236" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <v>10208755</v>
+      </c>
+      <c r="D237">
+        <v>150</v>
+      </c>
+      <c r="E237" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>12420819</v>
+      </c>
+      <c r="D238">
+        <v>289</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <v>12880157</v>
+      </c>
+      <c r="D239">
+        <v>180</v>
+      </c>
+      <c r="E239" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>10222647</v>
+      </c>
+      <c r="D240">
+        <v>120</v>
+      </c>
+      <c r="E240" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>10366958</v>
+      </c>
+      <c r="D241">
+        <v>150</v>
+      </c>
+      <c r="E241" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>10208644</v>
+      </c>
+      <c r="D242">
+        <v>289</v>
+      </c>
+      <c r="E242" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>10367569</v>
+      </c>
+      <c r="D243">
+        <v>428</v>
+      </c>
+      <c r="E243" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>10208622</v>
+      </c>
+      <c r="D244">
+        <v>567</v>
+      </c>
+      <c r="E244" s="1">
         <v>45077</v>
       </c>
     </row>
